--- a/pages/accessrecord_structured/GP Connect Req Cat - Access Record Structured Data v1.4.xlsx
+++ b/pages/accessrecord_structured/GP Connect Req Cat - Access Record Structured Data v1.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mist1\OneDrive - NHS Digital\Documents\GP Connect\Requirements\Requirements - Structured\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="8_{C4CCE15D-73F8-478D-89A7-C044948BE9F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{A6D54C43-BD4A-415E-BA3F-48D54AD37397}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="8_{C4CCE15D-73F8-478D-89A7-C044948BE9F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{C8E6E5CF-9451-4B3F-83D4-5603CD6794E3}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="0" windowWidth="13785" windowHeight="6375" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4223" yWindow="0" windowWidth="13785" windowHeight="6375" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Management" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="613">
   <si>
     <t>Document filename</t>
   </si>
@@ -2328,10 +2328,113 @@
 2 - The consuming system may access the PDS record using any appropriate PDS, DBS or Mini-PDS service.</t>
   </si>
   <si>
+    <t>1 - The consumer system must confirm the patient's registered GP practice using PDS.
+2 - The consumer system must use the patient's current registered GP practice when using the access record GP Connect functions.
+3 - If the consumer system cannot confirm the patient's registered GP practice then it must not use GP Connect.</t>
+  </si>
+  <si>
+    <t>1 - Where a patient is flagged on PDS as sensitive (and as such it is not possible to confirm their registered GP practice), the consumer system must not use GP Connect.
+    • The consumer organisation must follow the PDS Integration Requirements FLGSEN and FLGLCL for handling of sensitive patients.</t>
+  </si>
+  <si>
+    <t>1 - Where a NHS Number is flagged as superseded the consumber system must use the patient's current NHS Number to access GP Connect functions.</t>
+  </si>
+  <si>
+    <t>1 - Where a NHS Number is flagged on PDS as invalid (and as such it is not possible to confirm their registered GP practice), the consumer system must not use GP Connect.
+    • The consumer system must advise the user that the NHS Number is invalid  and a valid NHS number is needed to use GP Connect.</t>
+  </si>
+  <si>
+    <t>1 - Where a patient is flagged on PDS as deceased (and as such is not receiving direct care), the consumer system must not use GP Connect.
+    • The consumer system must advise the user that the patient is recorded as deceased.</t>
+  </si>
+  <si>
+    <t>1 - Where a NHS Number is not found on PDS (and as such it is not possible to confirm their registered GP practice), the consumer system must not use GP Connect.
+    • The consumer system must advise the user that the NHS Number is not found and a valid NHS number is needed to use GP Connect.</t>
+  </si>
+  <si>
+    <t>1 - The provider systems must return all the medical devices data recorded as prescribed items on the system for the patient NHS number sent by the consuming system.
+2 - The provider system must supply all the data items specified by the medication summary and medication issue entities in the logical data model</t>
+  </si>
+  <si>
+    <t>1 - Where the patient is recorded as deceased on the GP Clinical System,  the provider system must not return any clinical data and instead return the error "Patient not found".</t>
+  </si>
+  <si>
+    <t>1 - Where a NHS number is not found on the clinical system local record,  the provider system must return the error "Patient not found"</t>
+  </si>
+  <si>
+    <t>1 - Where a patient is flagged on the GP Clinial System as sensitive (and as such the GP practice must not identify that the patient is registered at this location), the provider system must not return any clinical records and instead return the error "Patient not found"</t>
+  </si>
+  <si>
+    <t>1 - If no search date is supplied the provider system must return all medications from the start of the medical record</t>
+  </si>
+  <si>
+    <t>1 - The consumer system may supply a search date with the medication and medical device data request.
+2 - When supplied, the search date must be less than or equal to the current date</t>
+  </si>
+  <si>
+    <t>As a clinician
+I want to see filter the patient's historic medication information by date whilst still seeing all their current medication 
+So that I am not be overloaded with information</t>
+  </si>
+  <si>
+    <t>A selection of acute and repeat medications with different dates.</t>
+  </si>
+  <si>
+    <t>Each diagram has a different search date. Medications that have been greyed out are not returned in that date search.</t>
+  </si>
+  <si>
+    <t>Graphical representation of the medication date search</t>
+  </si>
+  <si>
+    <t>1 - If no search date is supplied the provider system must return all medical devices from the start of the medical record</t>
+  </si>
+  <si>
+    <t>1 - Where the consumer system has requested issue information, the provider must return all medical device issue data items related to the medical device summaries that are returned
+2 - Where the consumer system has not requested issue information, the provider must not return medical device issue data items</t>
+  </si>
+  <si>
+    <t>As a clinician
+I want to see filter the patient's historic medical device information by date whilst still seeing all their current medical devices 
+So that I am not be overloaded with information</t>
+  </si>
+  <si>
+    <t>1 - Return all medication whose effective period is on or after the supplied search date
+      • The provider system must return the medication summary data items for all medications whose effective end date in on or after the search date sent by the consuming system.
+2 - If the medication does not have an effective end date and is repeat (repeat prescribed, repeat dispensed, prescribed elsewhere repeat), treat the effective period as ongoing for the search 
+     • The provider system must return the medication summary data items for all repeat medications without an effective end date.
+     • Where the medication is prescribed elsewhere and does not identify itself as acute or repeat then treat it as repeat for the search. That is, return the item if it does not have an effective end date. This will ensure the clinician has visibility of the item and can decide themselves if it is relevant.
+3 - If the medication does not have an effective end date and is acute (acute or prescribed elsewhere acute), treat the effective period as only the start date for the search 
+     • The provider system must return the medication summary data items for all acute medications whose effective start date is on or after the search date sent by the consuming system.
+4 - Where the supplied search date is greater than the current date send an error message and do not return any medication data.</t>
+  </si>
+  <si>
+    <t>1 - Return all medical devices whose effective period is on or after the supplied search date
+      • The provider system must return the medical device summary data items for all medical devices whose effective end date in on or after the search date sent by the consuming system.
+2 - If the medical device does not have an effective end date and is repeat (repeat prescribed, repeat dispensed, prescribed elsewhere repeat), treat the effective period as ongoing for the search 
+     • The provider system must return the medical device summary data items for all repeat medical devices without an effective end date.
+     • Where the medical device is prescribed elsewhere and does not identify itself as acute or repeat then treat it as repeat for the search. That is, return the item if it does not have an effective end date. This will ensure the clinician has visibility of the item and can decide themselves if it is relevant.
+3 - If the medical device does not have an effective end date and is acute (acute or prescribed elsewhere acute), treat the effective period as only the start date for the search 
+     • The provider system must return the medical device summary data items for all acute medical devices whose effective start date is on or after the search date sent by the consuming system.
+4 - Where the supplied search date is greater than the current date send an error message and do not return any medical device data.</t>
+  </si>
+  <si>
+    <t>See the medication date search tab for examples.</t>
+  </si>
+  <si>
+    <t>Medication Date Search</t>
+  </si>
+  <si>
+    <t>1 - If the provider system receives a request which it recognises as a superseded NHS Number, then it must not return the patient record, it must return a "Patient Not Found" error</t>
+  </si>
+  <si>
+    <t>1 - If the provider system receives a request which it recognises as an invalid NHS Number, then it must not return the patient record, it must return a "Patient Not Found" error</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">1 - The consumer system must have checked the patient's NHS Number and birthdate held on PDS against their local records (where available) to ensure they have the correct NHS Number.
-    • Where the patient's NHS Number and Date of Birth do not match the consumer system must not use GP Connect.
-    • The consumer system must advise the consumer system's end-user if the patient's NHS Number of Date of Birth do not match.
+      <t xml:space="preserve">1 - The consumer system must have a verified NHS Number to use GP Connect.
+    • The NHS Number is considered verified if a NHS Number is found on PDS and the Date of Birth in the request exactly matches the Date of Birth held on PDS for the record in the format of YYYYMMDD. 
+    • If the above check fails, the NHS Number within the request is considered verified should 2 out of 3 parts of the Date of Birth match (YYYY or MM or DD), the first 3 characters of the Surname match and the initial character of the forename match that held for the record on PDS. (If either of Surname and Forename are not supplied then this step obviously cannot be performed). 
+    • If both of the above checks fail to find a match then NHS Number is treated as not verified. The consumer system must not use GP Connect and must advice the consumer system's end user.
 2 - The consumer system must compare the demographic details returned by the provider system against the details its holds locally (where available).
 </t>
     </r>
@@ -2358,103 +2461,7 @@
     </r>
   </si>
   <si>
-    <t>1 - The consumer system must confirm the patient's registered GP practice using PDS.
-2 - The consumer system must use the patient's current registered GP practice when using the access record GP Connect functions.
-3 - If the consumer system cannot confirm the patient's registered GP practice then it must not use GP Connect.</t>
-  </si>
-  <si>
-    <t>1 - Where a patient is flagged on PDS as sensitive (and as such it is not possible to confirm their registered GP practice), the consumer system must not use GP Connect.
-    • The consumer organisation must follow the PDS Integration Requirements FLGSEN and FLGLCL for handling of sensitive patients.</t>
-  </si>
-  <si>
-    <t>1 - Where a NHS Number is flagged as superseded the consumber system must use the patient's current NHS Number to access GP Connect functions.</t>
-  </si>
-  <si>
-    <t>1 - Where a NHS Number is flagged on PDS as invalid (and as such it is not possible to confirm their registered GP practice), the consumer system must not use GP Connect.
-    • The consumer system must advise the user that the NHS Number is invalid  and a valid NHS number is needed to use GP Connect.</t>
-  </si>
-  <si>
-    <t>1 - Where a patient is flagged on PDS as deceased (and as such is not receiving direct care), the consumer system must not use GP Connect.
-    • The consumer system must advise the user that the patient is recorded as deceased.</t>
-  </si>
-  <si>
-    <t>1 - Where a NHS Number is not found on PDS (and as such it is not possible to confirm their registered GP practice), the consumer system must not use GP Connect.
-    • The consumer system must advise the user that the NHS Number is not found and a valid NHS number is needed to use GP Connect.</t>
-  </si>
-  <si>
-    <t>1 - The provider systems must return all the medical devices data recorded as prescribed items on the system for the patient NHS number sent by the consuming system.
-2 - The provider system must supply all the data items specified by the medication summary and medication issue entities in the logical data model</t>
-  </si>
-  <si>
-    <t>1 - Where the patient is recorded as deceased on the GP Clinical System,  the provider system must not return any clinical data and instead return the error "Patient not found".</t>
-  </si>
-  <si>
-    <t>1 - Where a NHS number is not found on the clinical system local record,  the provider system must return the error "Patient not found"</t>
-  </si>
-  <si>
-    <t>1 - Where a patient is flagged on the GP Clinial System as sensitive (and as such the GP practice must not identify that the patient is registered at this location), the provider system must not return any clinical records and instead return the error "Patient not found"</t>
-  </si>
-  <si>
-    <t>1 - If no search date is supplied the provider system must return all medications from the start of the medical record</t>
-  </si>
-  <si>
-    <t>1 - The consumer system may supply a search date with the medication and medical device data request.
-2 - When supplied, the search date must be less than or equal to the current date</t>
-  </si>
-  <si>
-    <t>As a clinician
-I want to see filter the patient's historic medication information by date whilst still seeing all their current medication 
-So that I am not be overloaded with information</t>
-  </si>
-  <si>
-    <t>A selection of acute and repeat medications with different dates.</t>
-  </si>
-  <si>
-    <t>Each diagram has a different search date. Medications that have been greyed out are not returned in that date search.</t>
-  </si>
-  <si>
-    <t>Graphical representation of the medication date search</t>
-  </si>
-  <si>
-    <t>1 - If no search date is supplied the provider system must return all medical devices from the start of the medical record</t>
-  </si>
-  <si>
-    <t>1 - Where the consumer system has requested issue information, the provider must return all medical device issue data items related to the medical device summaries that are returned
-2 - Where the consumer system has not requested issue information, the provider must not return medical device issue data items</t>
-  </si>
-  <si>
-    <t>As a clinician
-I want to see filter the patient's historic medical device information by date whilst still seeing all their current medical devices 
-So that I am not be overloaded with information</t>
-  </si>
-  <si>
-    <t>1 - Return all medication whose effective period is on or after the supplied search date
-      • The provider system must return the medication summary data items for all medications whose effective end date in on or after the search date sent by the consuming system.
-2 - If the medication does not have an effective end date and is repeat (repeat prescribed, repeat dispensed, prescribed elsewhere repeat), treat the effective period as ongoing for the search 
-     • The provider system must return the medication summary data items for all repeat medications without an effective end date.
-     • Where the medication is prescribed elsewhere and does not identify itself as acute or repeat then treat it as repeat for the search. That is, return the item if it does not have an effective end date. This will ensure the clinician has visibility of the item and can decide themselves if it is relevant.
-3 - If the medication does not have an effective end date and is acute (acute or prescribed elsewhere acute), treat the effective period as only the start date for the search 
-     • The provider system must return the medication summary data items for all acute medications whose effective start date is on or after the search date sent by the consuming system.
-4 - Where the supplied search date is greater than the current date send an error message and do not return any medication data.</t>
-  </si>
-  <si>
-    <t>1 - Return all medical devices whose effective period is on or after the supplied search date
-      • The provider system must return the medical device summary data items for all medical devices whose effective end date in on or after the search date sent by the consuming system.
-2 - If the medical device does not have an effective end date and is repeat (repeat prescribed, repeat dispensed, prescribed elsewhere repeat), treat the effective period as ongoing for the search 
-     • The provider system must return the medical device summary data items for all repeat medical devices without an effective end date.
-     • Where the medical device is prescribed elsewhere and does not identify itself as acute or repeat then treat it as repeat for the search. That is, return the item if it does not have an effective end date. This will ensure the clinician has visibility of the item and can decide themselves if it is relevant.
-3 - If the medical device does not have an effective end date and is acute (acute or prescribed elsewhere acute), treat the effective period as only the start date for the search 
-     • The provider system must return the medical device summary data items for all acute medical devices whose effective start date is on or after the search date sent by the consuming system.
-4 - Where the supplied search date is greater than the current date send an error message and do not return any medical device data.</t>
-  </si>
-  <si>
-    <t>See the medication date search tab for examples.</t>
-  </si>
-  <si>
-    <t>Medication Date Search</t>
-  </si>
-  <si>
-    <t>Remove end date parameter from medication and medical device date search criteria and add graphical represenatation.</t>
+    <t>Remove end date parameter from medication and medical device date search criteria and add graphical represenatation. Add clarification for provider handling or invalid and superseded patients.</t>
   </si>
 </sst>
 </file>
@@ -3482,13 +3489,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="25.75" style="11" customWidth="1"/>
     <col min="5" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3498,7 +3505,7 @@
       <c r="C1" s="83"/>
       <c r="D1" s="83"/>
     </row>
-    <row r="2" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -3512,7 +3519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -3520,7 +3527,7 @@
       <c r="C3" s="83"/>
       <c r="D3" s="83"/>
     </row>
-    <row r="4" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -3534,7 +3541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -3548,7 +3555,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -3562,13 +3569,13 @@
         <v>43391</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="86" t="s">
         <v>16</v>
       </c>
@@ -3576,7 +3583,7 @@
       <c r="C8" s="87"/>
       <c r="D8" s="88"/>
     </row>
-    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
@@ -3588,7 +3595,7 @@
       </c>
       <c r="D9" s="88"/>
     </row>
-    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>0.2</v>
       </c>
@@ -3600,7 +3607,7 @@
       </c>
       <c r="D10" s="85"/>
     </row>
-    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>0.3</v>
       </c>
@@ -3612,7 +3619,7 @@
       </c>
       <c r="D11" s="85"/>
     </row>
-    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>0.5</v>
       </c>
@@ -3624,7 +3631,7 @@
       </c>
       <c r="D12" s="85"/>
     </row>
-    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>0.6</v>
       </c>
@@ -3636,7 +3643,7 @@
       </c>
       <c r="D13" s="85"/>
     </row>
-    <row r="14" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>23</v>
       </c>
@@ -3648,7 +3655,7 @@
       </c>
       <c r="D14" s="85"/>
     </row>
-    <row r="15" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>1.1000000000000001</v>
       </c>
@@ -3660,7 +3667,7 @@
       </c>
       <c r="D15" s="85"/>
     </row>
-    <row r="16" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>1.2</v>
       </c>
@@ -3672,7 +3679,7 @@
       </c>
       <c r="D16" s="85"/>
     </row>
-    <row r="17" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>1.3</v>
       </c>
@@ -3684,7 +3691,7 @@
       </c>
       <c r="D17" s="85"/>
     </row>
-    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>1.4</v>
       </c>
@@ -3692,17 +3699,17 @@
         <v>43391</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D18" s="85"/>
     </row>
-    <row r="19" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
     </row>
-    <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="86" t="s">
         <v>25</v>
       </c>
@@ -3710,7 +3717,7 @@
       <c r="C20" s="87"/>
       <c r="D20" s="88"/>
     </row>
-    <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>26</v>
       </c>
@@ -3724,43 +3731,43 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="13"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="13"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="13"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="13"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="13"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
     </row>
-    <row r="28" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -3797,7 +3804,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
@@ -3812,7 +3819,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="77" t="s">
         <v>517</v>
       </c>
@@ -3821,7 +3828,7 @@
       </c>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:10" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="78" t="s">
         <v>519</v>
       </c>
@@ -3831,10 +3838,10 @@
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
     </row>
-    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
         <v>239</v>
       </c>
@@ -3866,7 +3873,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="54" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
         <v>247</v>
       </c>
@@ -3888,7 +3895,7 @@
       <c r="I5" s="36"/>
       <c r="J5" s="38"/>
     </row>
-    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A6" s="36" t="s">
         <v>252</v>
       </c>
@@ -3916,7 +3923,7 @@
       </c>
       <c r="J6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
         <v>252</v>
       </c>
@@ -3946,7 +3953,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>252</v>
       </c>
@@ -3972,7 +3979,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
         <v>252</v>
       </c>
@@ -3998,7 +4005,7 @@
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
         <v>252</v>
       </c>
@@ -4024,7 +4031,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
         <v>252</v>
       </c>
@@ -4050,7 +4057,7 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="54" x14ac:dyDescent="0.35">
       <c r="A12" s="28" t="s">
         <v>252</v>
       </c>
@@ -4076,7 +4083,7 @@
       </c>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>252</v>
       </c>
@@ -4104,7 +4111,7 @@
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
         <v>252</v>
       </c>
@@ -4132,7 +4139,7 @@
       </c>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
         <v>252</v>
       </c>
@@ -4154,7 +4161,7 @@
       <c r="I15" s="92"/>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
         <v>252</v>
       </c>
@@ -4176,7 +4183,7 @@
       <c r="I16" s="92"/>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>252</v>
       </c>
@@ -4198,7 +4205,7 @@
       <c r="I17" s="92"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A18" s="28" t="s">
         <v>252</v>
       </c>
@@ -4220,7 +4227,7 @@
       <c r="I18" s="92"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
         <v>252</v>
       </c>
@@ -4248,7 +4255,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A20" s="28" t="s">
         <v>252</v>
       </c>
@@ -4276,7 +4283,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="54" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>252</v>
       </c>
@@ -4304,7 +4311,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A22" s="28" t="s">
         <v>252</v>
       </c>
@@ -4331,7 +4338,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A23" s="54" t="s">
         <v>252</v>
       </c>
@@ -4355,7 +4362,7 @@
       <c r="I23" s="54"/>
       <c r="J23" s="57"/>
     </row>
-    <row r="24" spans="1:10" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="135" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
         <v>252</v>
       </c>
@@ -4387,7 +4394,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="99.75" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
         <v>252</v>
       </c>
@@ -4415,7 +4422,7 @@
       </c>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A26" s="28" t="s">
         <v>252</v>
       </c>
@@ -4441,7 +4448,7 @@
       </c>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A27" s="28" t="s">
         <v>252</v>
       </c>
@@ -4467,7 +4474,7 @@
       </c>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A28" s="28" t="s">
         <v>252</v>
       </c>
@@ -4495,7 +4502,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
         <v>252</v>
       </c>
@@ -4523,7 +4530,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="42.75" x14ac:dyDescent="0.35">
       <c r="A30" s="28" t="s">
         <v>252</v>
       </c>
@@ -4549,7 +4556,7 @@
       </c>
       <c r="J30" s="30"/>
     </row>
-    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="42.75" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
         <v>252</v>
       </c>
@@ -4575,7 +4582,7 @@
       </c>
       <c r="J31" s="30"/>
     </row>
-    <row r="32" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A32" s="33" t="s">
         <v>252</v>
       </c>
@@ -4599,7 +4606,7 @@
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
     </row>
-    <row r="33" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A33" s="28" t="s">
         <v>252</v>
       </c>
@@ -4625,7 +4632,7 @@
       </c>
       <c r="J33" s="30"/>
     </row>
-    <row r="34" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A34" s="33" t="s">
         <v>252</v>
       </c>
@@ -4649,7 +4656,7 @@
       <c r="I34" s="34"/>
       <c r="J34" s="34"/>
     </row>
-    <row r="35" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A35" s="33" t="s">
         <v>252</v>
       </c>
@@ -4673,7 +4680,7 @@
       <c r="I35" s="34"/>
       <c r="J35" s="34"/>
     </row>
-    <row r="36" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A36" s="33" t="s">
         <v>252</v>
       </c>
@@ -4697,7 +4704,7 @@
       <c r="I36" s="34"/>
       <c r="J36" s="34"/>
     </row>
-    <row r="37" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A37" s="33" t="s">
         <v>252</v>
       </c>
@@ -4721,7 +4728,7 @@
       <c r="I37" s="34"/>
       <c r="J37" s="34"/>
     </row>
-    <row r="38" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A38" s="33" t="s">
         <v>252</v>
       </c>
@@ -4745,7 +4752,7 @@
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
     </row>
-    <row r="39" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A39" s="33" t="s">
         <v>252</v>
       </c>
@@ -4769,7 +4776,7 @@
       <c r="I39" s="34"/>
       <c r="J39" s="34"/>
     </row>
-    <row r="40" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="81" x14ac:dyDescent="0.35">
       <c r="A40" s="28" t="s">
         <v>247</v>
       </c>
@@ -4791,7 +4798,7 @@
       <c r="I40" s="28"/>
       <c r="J40" s="30"/>
     </row>
-    <row r="41" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A41" s="36" t="s">
         <v>252</v>
       </c>
@@ -4818,7 +4825,7 @@
       </c>
       <c r="J41" s="38"/>
     </row>
-    <row r="42" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A42" s="28" t="s">
         <v>252</v>
       </c>
@@ -4844,7 +4851,7 @@
       </c>
       <c r="J42" s="30"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="28" t="s">
         <v>252</v>
       </c>
@@ -4870,7 +4877,7 @@
       </c>
       <c r="J43" s="30"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="28" t="s">
         <v>252</v>
       </c>
@@ -4896,7 +4903,7 @@
       </c>
       <c r="J44" s="30"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="28" t="s">
         <v>252</v>
       </c>
@@ -4922,7 +4929,7 @@
       </c>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A46" s="28" t="s">
         <v>252</v>
       </c>
@@ -4948,7 +4955,7 @@
       </c>
       <c r="J46" s="30"/>
     </row>
-    <row r="47" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A47" s="28" t="s">
         <v>252</v>
       </c>
@@ -4976,7 +4983,7 @@
       </c>
       <c r="J47" s="30"/>
     </row>
-    <row r="48" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A48" s="28" t="s">
         <v>252</v>
       </c>
@@ -5004,7 +5011,7 @@
       </c>
       <c r="J48" s="30"/>
     </row>
-    <row r="49" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A49" s="28" t="s">
         <v>252</v>
       </c>
@@ -5026,7 +5033,7 @@
       <c r="I49" s="92"/>
       <c r="J49" s="30"/>
     </row>
-    <row r="50" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A50" s="28" t="s">
         <v>252</v>
       </c>
@@ -5048,7 +5055,7 @@
       <c r="I50" s="92"/>
       <c r="J50" s="30"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="28" t="s">
         <v>252</v>
       </c>
@@ -5070,7 +5077,7 @@
       <c r="I51" s="92"/>
       <c r="J51" s="30"/>
     </row>
-    <row r="52" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A52" s="28" t="s">
         <v>252</v>
       </c>
@@ -5092,7 +5099,7 @@
       <c r="I52" s="92"/>
       <c r="J52" s="30"/>
     </row>
-    <row r="53" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A53" s="28" t="s">
         <v>252</v>
       </c>
@@ -5120,7 +5127,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="28" t="s">
         <v>252</v>
       </c>
@@ -5146,7 +5153,7 @@
       </c>
       <c r="J54" s="30"/>
     </row>
-    <row r="55" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="99.75" x14ac:dyDescent="0.35">
       <c r="A55" s="28" t="s">
         <v>252</v>
       </c>
@@ -5174,7 +5181,7 @@
       </c>
       <c r="J55" s="30"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="28" t="s">
         <v>252</v>
       </c>
@@ -5200,7 +5207,7 @@
       </c>
       <c r="J56" s="30"/>
     </row>
-    <row r="57" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A57" s="28" t="s">
         <v>252</v>
       </c>
@@ -5226,7 +5233,7 @@
       </c>
       <c r="J57" s="30"/>
     </row>
-    <row r="58" spans="1:10" s="76" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" s="76" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="73"/>
       <c r="B58" s="74"/>
       <c r="C58" s="74"/>
@@ -5238,7 +5245,7 @@
       <c r="I58" s="74"/>
       <c r="J58" s="75"/>
     </row>
-    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="39" t="s">
         <v>239</v>
       </c>
@@ -5270,7 +5277,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A60" s="28" t="s">
         <v>247</v>
       </c>
@@ -5292,7 +5299,7 @@
       <c r="I60" s="28"/>
       <c r="J60" s="30"/>
     </row>
-    <row r="61" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A61" s="36" t="s">
         <v>252</v>
       </c>
@@ -5319,7 +5326,7 @@
       </c>
       <c r="J61" s="38"/>
     </row>
-    <row r="62" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A62" s="28" t="s">
         <v>252</v>
       </c>
@@ -5345,7 +5352,7 @@
       </c>
       <c r="J62" s="30"/>
     </row>
-    <row r="63" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A63" s="28" t="s">
         <v>252</v>
       </c>
@@ -5371,7 +5378,7 @@
       </c>
       <c r="J63" s="30"/>
     </row>
-    <row r="64" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A64" s="28" t="s">
         <v>252</v>
       </c>
@@ -5399,7 +5406,7 @@
       </c>
       <c r="J64" s="30"/>
     </row>
-    <row r="65" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A65" s="28" t="s">
         <v>252</v>
       </c>
@@ -5425,7 +5432,7 @@
       </c>
       <c r="J65" s="30"/>
     </row>
-    <row r="66" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="28" t="s">
         <v>252</v>
       </c>
@@ -5451,7 +5458,7 @@
       </c>
       <c r="J66" s="30"/>
     </row>
-    <row r="67" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A67" s="28" t="s">
         <v>252</v>
       </c>
@@ -5477,7 +5484,7 @@
       </c>
       <c r="J67" s="30"/>
     </row>
-    <row r="68" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A68" s="28" t="s">
         <v>252</v>
       </c>
@@ -5503,7 +5510,7 @@
       </c>
       <c r="J68" s="30"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="28" t="s">
         <v>252</v>
       </c>
@@ -5529,7 +5536,7 @@
       </c>
       <c r="J69" s="30"/>
     </row>
-    <row r="70" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A70" s="28" t="s">
         <v>252</v>
       </c>
@@ -5554,7 +5561,7 @@
       </c>
       <c r="J70" s="30"/>
     </row>
-    <row r="71" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A71" s="28" t="s">
         <v>252</v>
       </c>
@@ -5582,7 +5589,7 @@
       </c>
       <c r="J71" s="30"/>
     </row>
-    <row r="72" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A72" s="28" t="s">
         <v>252</v>
       </c>
@@ -5608,7 +5615,7 @@
       </c>
       <c r="J72" s="30"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="28" t="s">
         <v>252</v>
       </c>
@@ -5634,7 +5641,7 @@
       </c>
       <c r="J73" s="30"/>
     </row>
-    <row r="74" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A74" s="28" t="s">
         <v>252</v>
       </c>
@@ -5662,7 +5669,7 @@
       </c>
       <c r="J74" s="30"/>
     </row>
-    <row r="75" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A75" s="33" t="s">
         <v>252</v>
       </c>
@@ -5690,7 +5697,7 @@
       </c>
       <c r="J75" s="34"/>
     </row>
-    <row r="76" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A76" s="33" t="s">
         <v>252</v>
       </c>
@@ -5714,7 +5721,7 @@
       <c r="I76" s="34"/>
       <c r="J76" s="34"/>
     </row>
-    <row r="77" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A77" s="33" t="s">
         <v>252</v>
       </c>
@@ -5738,7 +5745,7 @@
       <c r="I77" s="34"/>
       <c r="J77" s="34"/>
     </row>
-    <row r="78" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="27" x14ac:dyDescent="0.35">
       <c r="A78" s="33" t="s">
         <v>252</v>
       </c>
@@ -5792,42 +5799,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="77" t="s">
         <v>517</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="78" t="s">
         <v>519</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="94" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B4" s="94"/>
       <c r="C4" s="94"/>
       <c r="D4" s="94"/>
     </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="94" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B5" s="94"/>
       <c r="C5" s="94"/>
@@ -5851,7 +5858,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
@@ -5859,7 +5866,7 @@
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="15" x14ac:dyDescent="0.4">
       <c r="B2" s="80" t="s">
         <v>529</v>
       </c>
@@ -5867,7 +5874,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="81" t="str">
         <f>'NHS England Scenarios'!$B$1</f>
         <v>NHS England Scenarios</v>
@@ -5878,7 +5885,7 @@
       </c>
       <c r="E3" s="79"/>
     </row>
-    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.35">
       <c r="B4" s="81" t="str">
         <f>'Processes - Use Cases'!$B$1</f>
         <v>Processes - Use Cases</v>
@@ -5888,7 +5895,7 @@
         <v>A list of documented business processes that could be supported by GP Connect Structured, where those processes fit into the NHS England Scenarios and which of the supported clinical areas they impact. The details of each business process are held in another set of documents.</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="15" x14ac:dyDescent="0.35">
       <c r="B5" s="81" t="str">
         <f>'User Stories - Structured'!$B$1</f>
         <v>User Stories - Structured</v>
@@ -5898,7 +5905,7 @@
         <v>Business Requirements that apply across all of GP Connect Structured</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.35">
       <c r="B6" s="81" t="str">
         <f>'User Stories - Meds'!$B$1</f>
         <v>User Stories - Meds</v>
@@ -5908,7 +5915,7 @@
         <v>Business Requirements that apply to the Medication and Medical Devices clinical area of GP Connect Structured</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" ht="15" x14ac:dyDescent="0.35">
       <c r="B7" s="81" t="str">
         <f>'User Stories - Allergies'!$B$1</f>
         <v>User Stories - Allergies</v>
@@ -5918,7 +5925,7 @@
         <v>Business Requirements that apply to the Allergies and Adverse Reaction clinical area of GP Connect Structured</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="45" x14ac:dyDescent="0.35">
       <c r="B8" s="81" t="str">
         <f>'User Stories - Core'!$B$1</f>
         <v>User Stories - Core</v>
@@ -5928,7 +5935,7 @@
         <v>In future iterations, a common set of core requirements will apply across all GP Connect capabilities. Further allignment work is still required to reach that stage so this version of the core requirements applies across GP Connect Structured only (core requirements for the other capabilities are documented elsewhere).</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" ht="45" x14ac:dyDescent="0.35">
       <c r="B9" s="81" t="str">
         <f>'User Stories - IG'!$B$1</f>
         <v>User Stories - IG</v>
@@ -5938,7 +5945,7 @@
         <v>In future iterations, a common set of IG requirements will apply across all GP Connect capabilities. Further allignment work is still required to reach that stage so this version of the IG requirements applies across GP Connect Structured only (IG requirments for the other capabilities are documented elsewhere).</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.35">
       <c r="B10" s="81" t="str">
         <f>'Logical Data Model'!$B$1</f>
         <v>Logical Data Model</v>
@@ -5948,7 +5955,7 @@
         <v>All the data items identified by stakeholders as necessary or beneficial in supporting the direct care of their patients and where those data items map into the FHIR profiles.</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="15" x14ac:dyDescent="0.35">
       <c r="B11" s="81" t="str">
         <f>'Medication Date Search'!B1</f>
         <v>Medication Date Search</v>
@@ -5958,7 +5965,7 @@
         <v>Graphical representation of the medication date search</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D12" s="21"/>
     </row>
   </sheetData>
@@ -5973,7 +5980,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="63.5" customWidth="1"/>
@@ -5982,7 +5989,7 @@
     <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="77" t="s">
         <v>517</v>
       </c>
@@ -5991,7 +5998,7 @@
       </c>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:5" ht="32.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="32.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="78" t="s">
         <v>519</v>
       </c>
@@ -6001,10 +6008,10 @@
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C3" s="21"/>
     </row>
-    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -6021,7 +6028,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="122.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="122.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -6038,7 +6045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="87.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="82.15" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -6055,7 +6062,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="135.75" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -6072,7 +6079,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="135.75" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
@@ -6089,7 +6096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="108" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
@@ -6106,7 +6113,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="87" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="81.75" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
@@ -6123,7 +6130,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="115.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="108.75" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>63</v>
       </c>
@@ -6159,7 +6166,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.125" style="16" customWidth="1"/>
     <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
@@ -6169,7 +6176,7 @@
     <col min="6" max="7" width="15.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="77" t="s">
         <v>517</v>
       </c>
@@ -6181,7 +6188,7 @@
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="78" t="s">
         <v>519</v>
       </c>
@@ -6193,14 +6200,14 @@
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="C3" s="21"/>
       <c r="D3"/>
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
         <v>68</v>
       </c>
@@ -6223,7 +6230,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>3.1</v>
       </c>
@@ -6244,7 +6251,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>3.2</v>
       </c>
@@ -6265,7 +6272,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>3.3</v>
       </c>
@@ -6288,7 +6295,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>3.4</v>
       </c>
@@ -6309,7 +6316,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>3.5</v>
       </c>
@@ -6330,7 +6337,7 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>3.6</v>
       </c>
@@ -6353,7 +6360,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>3.7</v>
       </c>
@@ -6376,7 +6383,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>3.8</v>
       </c>
@@ -6399,7 +6406,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>3.9</v>
       </c>
@@ -6422,7 +6429,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>107</v>
       </c>
@@ -6445,7 +6452,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>110</v>
       </c>
@@ -6468,7 +6475,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>113</v>
       </c>
@@ -6491,7 +6498,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>117</v>
       </c>
@@ -6514,7 +6521,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>120</v>
       </c>
@@ -6537,7 +6544,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>125</v>
       </c>
@@ -6560,7 +6567,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>128</v>
       </c>
@@ -6583,7 +6590,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>132</v>
       </c>
@@ -6606,7 +6613,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>137</v>
       </c>
@@ -6629,7 +6636,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>141</v>
       </c>
@@ -6652,7 +6659,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>145</v>
       </c>
@@ -6673,7 +6680,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>149</v>
       </c>
@@ -6694,7 +6701,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>152</v>
       </c>
@@ -6717,7 +6724,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>157</v>
       </c>
@@ -6740,7 +6747,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="2"/>
       <c r="C28" s="17"/>
@@ -6748,19 +6755,19 @@
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="D29" s="2"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="D30" s="2"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="D31" s="2"/>
       <c r="F31" s="8"/>
@@ -6787,7 +6794,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
@@ -6798,7 +6805,7 @@
     <col min="8" max="8" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="77" t="s">
         <v>517</v>
       </c>
@@ -6806,7 +6813,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A2" s="77" t="s">
         <v>519</v>
       </c>
@@ -6816,7 +6823,7 @@
       <c r="C2" s="90"/>
       <c r="D2" s="90"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
         <v>161</v>
       </c>
@@ -6842,7 +6849,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A5" s="60" t="s">
         <v>498</v>
       </c>
@@ -6866,7 +6873,7 @@
       </c>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A6" s="62" t="s">
         <v>499</v>
       </c>
@@ -6888,7 +6895,7 @@
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A7" s="62" t="s">
         <v>500</v>
       </c>
@@ -6910,7 +6917,7 @@
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A8" s="62" t="s">
         <v>501</v>
       </c>
@@ -6932,7 +6939,7 @@
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
     </row>
-    <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A9" s="62" t="s">
         <v>502</v>
       </c>
@@ -6954,13 +6961,13 @@
       <c r="G9" s="67"/>
       <c r="H9" s="42"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D11" s="58"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D12" s="58"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D13" s="58"/>
     </row>
   </sheetData>
@@ -6990,7 +6997,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
@@ -7001,7 +7008,7 @@
     <col min="8" max="8" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="77" t="s">
         <v>517</v>
       </c>
@@ -7009,7 +7016,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A2" s="77" t="s">
         <v>519</v>
       </c>
@@ -7019,7 +7026,7 @@
       <c r="C2" s="90"/>
       <c r="D2" s="90"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
         <v>161</v>
       </c>
@@ -7045,7 +7052,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
         <v>483</v>
       </c>
@@ -7069,7 +7076,7 @@
       </c>
       <c r="H5" s="36"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A6" s="36" t="s">
         <v>484</v>
       </c>
@@ -7093,7 +7100,7 @@
       </c>
       <c r="H6" s="62"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.35">
       <c r="A7" s="36" t="s">
         <v>485</v>
       </c>
@@ -7115,7 +7122,7 @@
       <c r="G7" s="62"/>
       <c r="H7" s="62"/>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="228" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
         <v>486</v>
       </c>
@@ -7126,20 +7133,20 @@
         <v>178</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H8" s="62"/>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A9" s="36" t="s">
         <v>487</v>
       </c>
@@ -7153,7 +7160,7 @@
         <v>180</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>181</v>
@@ -7161,7 +7168,7 @@
       <c r="G9" s="62"/>
       <c r="H9" s="62"/>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
         <v>488</v>
       </c>
@@ -7183,7 +7190,7 @@
       <c r="G10" s="62"/>
       <c r="H10" s="62"/>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="108" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
         <v>489</v>
       </c>
@@ -7207,7 +7214,7 @@
       </c>
       <c r="H11" s="62"/>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="108" x14ac:dyDescent="0.35">
       <c r="A12" s="36" t="s">
         <v>490</v>
       </c>
@@ -7221,7 +7228,7 @@
         <v>188</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>503</v>
@@ -7231,7 +7238,7 @@
       </c>
       <c r="H12" s="62"/>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.35">
       <c r="A13" s="36" t="s">
         <v>491</v>
       </c>
@@ -7253,7 +7260,7 @@
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="228" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="216" x14ac:dyDescent="0.35">
       <c r="A14" s="36" t="s">
         <v>492</v>
       </c>
@@ -7264,20 +7271,20 @@
         <v>191</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E14" s="44" t="s">
+        <v>606</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>597</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="F14" s="44" t="s">
-        <v>598</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>608</v>
-      </c>
       <c r="H14" s="62"/>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
         <v>493</v>
       </c>
@@ -7291,7 +7298,7 @@
         <v>193</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F15" s="44" t="s">
         <v>181</v>
@@ -7299,7 +7306,7 @@
       <c r="G15" s="62"/>
       <c r="H15" s="62"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A16" s="36" t="s">
         <v>494</v>
       </c>
@@ -7313,7 +7320,7 @@
         <v>194</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F16" s="44" t="s">
         <v>560</v>
@@ -7321,13 +7328,13 @@
       <c r="G16" s="62"/>
       <c r="H16" s="62"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" s="58"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" s="58"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D20" s="58"/>
     </row>
   </sheetData>
@@ -7357,7 +7364,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
@@ -7368,7 +7375,7 @@
     <col min="8" max="8" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="77" t="s">
         <v>517</v>
       </c>
@@ -7376,7 +7383,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A2" s="77" t="s">
         <v>519</v>
       </c>
@@ -7386,7 +7393,7 @@
       <c r="C2" s="90"/>
       <c r="D2" s="90"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
         <v>161</v>
       </c>
@@ -7412,7 +7419,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.35">
       <c r="A5" s="62" t="s">
         <v>495</v>
       </c>
@@ -7434,7 +7441,7 @@
       <c r="G5" s="62"/>
       <c r="H5" s="62"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A6" s="62" t="s">
         <v>496</v>
       </c>
@@ -7456,7 +7463,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="121.5" x14ac:dyDescent="0.35">
       <c r="A7" s="62" t="s">
         <v>497</v>
       </c>
@@ -7478,13 +7485,13 @@
       <c r="G7" s="62"/>
       <c r="H7" s="62"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D9" s="58"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D10" s="58"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D11" s="58"/>
     </row>
   </sheetData>
@@ -7514,7 +7521,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
@@ -7525,7 +7532,7 @@
     <col min="8" max="8" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="77" t="s">
         <v>517</v>
       </c>
@@ -7533,7 +7540,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="78" t="s">
         <v>519</v>
       </c>
@@ -7543,7 +7550,7 @@
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="63" t="s">
         <v>161</v>
       </c>
@@ -7569,7 +7576,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A5" s="65" t="s">
         <v>504</v>
       </c>
@@ -7591,7 +7598,7 @@
       </c>
       <c r="H5" s="66"/>
     </row>
-    <row r="6" spans="1:8" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="305.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="65" t="s">
         <v>505</v>
       </c>
@@ -7606,14 +7613,14 @@
         <v>181</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="G6" s="67" t="s">
         <v>481</v>
       </c>
       <c r="H6" s="66"/>
     </row>
-    <row r="7" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A7" s="65" t="s">
         <v>506</v>
       </c>
@@ -7628,14 +7635,14 @@
         <v>584</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G7" s="67" t="s">
         <v>540</v>
       </c>
       <c r="H7" s="66"/>
     </row>
-    <row r="8" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A8" s="65" t="s">
         <v>507</v>
       </c>
@@ -7647,17 +7654,17 @@
         <v>452</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G8" s="67" t="s">
         <v>482</v>
       </c>
       <c r="H8" s="65"/>
     </row>
-    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A9" s="65" t="s">
         <v>508</v>
       </c>
@@ -7669,15 +7676,15 @@
         <v>454</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>181</v>
+        <v>609</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G9" s="70"/>
       <c r="H9" s="65"/>
     </row>
-    <row r="10" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A10" s="65" t="s">
         <v>509</v>
       </c>
@@ -7689,15 +7696,15 @@
         <v>456</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>181</v>
+        <v>610</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G10" s="70"/>
       <c r="H10" s="66"/>
     </row>
-    <row r="11" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A11" s="65" t="s">
         <v>510</v>
       </c>
@@ -7709,17 +7716,17 @@
         <v>458</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G11" s="67" t="s">
         <v>540</v>
       </c>
       <c r="H11" s="66"/>
     </row>
-    <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A12" s="65" t="s">
         <v>511</v>
       </c>
@@ -7731,15 +7738,15 @@
         <v>476</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F12" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G12" s="70"/>
       <c r="H12" s="66"/>
     </row>
-    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A13" s="65" t="s">
         <v>512</v>
       </c>
@@ -7759,7 +7766,7 @@
       <c r="G13" s="71"/>
       <c r="H13" s="66"/>
     </row>
-    <row r="14" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A14" s="65" t="s">
         <v>513</v>
       </c>
@@ -7781,7 +7788,7 @@
       </c>
       <c r="H14" s="42"/>
     </row>
-    <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A15" s="65" t="s">
         <v>514</v>
       </c>
@@ -7803,7 +7810,7 @@
       </c>
       <c r="H15" s="42"/>
     </row>
-    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A16" s="65" t="s">
         <v>515</v>
       </c>
@@ -7825,7 +7832,7 @@
       </c>
       <c r="H16" s="42"/>
     </row>
-    <row r="17" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A17" s="65" t="s">
         <v>516</v>
       </c>
@@ -7872,7 +7879,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
@@ -7883,7 +7890,7 @@
     <col min="8" max="8" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="77" t="s">
         <v>517</v>
       </c>
@@ -7891,7 +7898,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="78" t="s">
         <v>519</v>
       </c>
@@ -7901,7 +7908,7 @@
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
         <v>161</v>
       </c>
@@ -7927,7 +7934,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>465</v>
       </c>
@@ -7949,7 +7956,7 @@
       </c>
       <c r="H5" s="42"/>
     </row>
-    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>466</v>
       </c>
@@ -7971,7 +7978,7 @@
       </c>
       <c r="H6" s="42"/>
     </row>
-    <row r="7" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="108" x14ac:dyDescent="0.35">
       <c r="A7" s="60" t="s">
         <v>467</v>
       </c>
@@ -7991,7 +7998,7 @@
       <c r="G7" s="42"/>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A8" s="60" t="s">
         <v>468</v>
       </c>
@@ -8011,7 +8018,7 @@
       <c r="G8" s="42"/>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="162" x14ac:dyDescent="0.35">
       <c r="A9" s="60" t="s">
         <v>469</v>
       </c>
@@ -8031,7 +8038,7 @@
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
     </row>
-    <row r="10" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
         <v>470</v>
       </c>
@@ -8051,7 +8058,7 @@
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
     </row>
-    <row r="11" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="54" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
         <v>471</v>
       </c>
@@ -8073,7 +8080,7 @@
       </c>
       <c r="H11" s="42"/>
     </row>
-    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A12" s="60" t="s">
         <v>472</v>
       </c>
@@ -8095,7 +8102,7 @@
       </c>
       <c r="H12" s="42"/>
     </row>
-    <row r="13" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A13" s="60" t="s">
         <v>473</v>
       </c>
@@ -8117,7 +8124,7 @@
       </c>
       <c r="H13" s="42"/>
     </row>
-    <row r="14" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A14" s="60" t="s">
         <v>474</v>
       </c>
@@ -8155,15 +8162,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -8268,45 +8266,18 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>NHSD Portfolio Document (8 years)</p:Name>
-  <p:Description/>
-  <p:Statement>This document implements 8 years retention from Authored Date</p:Statement>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7|-2054357789" UniqueId="c9a81329-e124-4cbc-9b7a-8099d020f266">
-      <p:Name>Retention</p:Name>
-      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
-      <p:CustomData>
-        <Schedules nextStageId="3">
-          <Schedule type="Default">
-            <stages>
-              <data stageId="1">
-                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
-                  <number>8</number>
-                  <property>AuthoredDate</property>
-                  <propertyId>78342c6d-8801-441d-a333-a9f070617aff</propertyId>
-                  <period>years</period>
-                </formula>
-                <action type="action" id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Action.Skip"/>
-              </data>
-              <data stageId="2">
-                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
-                  <number>22</number>
-                  <property>AuthoredDate</property>
-                  <propertyId>78342c6d-8801-441d-a333-a9f070617aff</propertyId>
-                  <period>years</period>
-                </formula>
-                <action type="action" id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Action.MoveToRecycleBin"/>
-              </data>
-            </stages>
-          </Schedule>
-        </Schedules>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="bb72b7f4-c981-47a4-a26e-043e4b78ebf3" ContentTypeId="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8622,7 +8593,43 @@
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="bb72b7f4-c981-47a4-a26e-043e4b78ebf3" ContentTypeId="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7" PreviousValue="false"/>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>NHSD Portfolio Document (8 years)</p:Name>
+  <p:Description/>
+  <p:Statement>This document implements 8 years retention from Authored Date</p:Statement>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7|-2054357789" UniqueId="c9a81329-e124-4cbc-9b7a-8099d020f266">
+      <p:Name>Retention</p:Name>
+      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
+      <p:CustomData>
+        <Schedules nextStageId="3">
+          <Schedule type="Default">
+            <stages>
+              <data stageId="1">
+                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
+                  <number>8</number>
+                  <property>AuthoredDate</property>
+                  <propertyId>78342c6d-8801-441d-a333-a9f070617aff</propertyId>
+                  <period>years</period>
+                </formula>
+                <action type="action" id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Action.Skip"/>
+              </data>
+              <data stageId="2">
+                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
+                  <number>22</number>
+                  <property>AuthoredDate</property>
+                  <propertyId>78342c6d-8801-441d-a333-a9f070617aff</propertyId>
+                  <period>years</period>
+                </formula>
+                <action type="action" id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Action.MoveToRecycleBin"/>
+              </data>
+            </stages>
+          </Schedule>
+        </Schedules>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8671,6 +8678,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA4677E9-5489-40B5-9440-41D9009D5C13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC01061-A2CF-4191-B67F-29A55016463D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -8678,18 +8693,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA4677E9-5489-40B5-9440-41D9009D5C13}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A6D99D-D28F-4F51-9CF3-0F2D2247AAAD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19405931-A81E-40EA-8A05-F46780F42396}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8715,9 +8722,9 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A6D99D-D28F-4F51-9CF3-0F2D2247AAAD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19405931-A81E-40EA-8A05-F46780F42396}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="office.server.policy"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8725,16 +8732,16 @@
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7F8168-C2C9-4934-8827-829F56CA9998}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="5668c8bc-6c30-45e9-80ca-5109d4270dfd"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fd99328b-ad0f-4a07-bc01-42c4f74e2fcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fd99328b-ad0f-4a07-bc01-42c4f74e2fcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5668c8bc-6c30-45e9-80ca-5109d4270dfd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
